--- a/similarities/split_global/harmonic_similarity_timestamps_18.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000')]</t>
+          <t>('0:00:24.980000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+          <t>('0:01:41.320000', '0:01:54.060000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=101.32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:06.980000', '0:00:15.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min', 'E:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.831000', '0:00:12.567000')]</t>
+          <t>('0:00:13.390000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:27.320000', '0:01:41.320000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=3.831']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb', 'F:min', 'Eb/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/A', 'E:min/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:11.640000', '0:01:23.380000')]</t>
+          <t>('0:00:01.490000', '0:00:04.314000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+          <t>('0:00:36.020000', '0:00:40.440000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=1.49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=59.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=36.02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Eb', 'Ab', 'Db']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:03.802834', '0:00:05.822970'), ('0:00:01.724648', '0:00:04.464603')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000'), ('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.802834', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=1.724648']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:09.840000')]</t>
+          <t>('0:02:44.360000', '0:03:26.120000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:01.440000', '0:00:40.100000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=164.36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:05.558652')]</t>
+          <t>('0:00:09.920000', '0:00:12.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:12.580000')]</t>
+          <t>('0:00:00.440395', '0:00:09.607823')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G#:maj/D#', 'D#:7', 'G#:maj'], ['G:min', 'D:7', 'G:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:52.780000', '0:02:00.720000'), ('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:24.960000', '0:01:31.380000'), ('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:00:24.860000', '0:00:45.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=112.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:40.720000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:01:26.923922', '0:01:33.181700')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:18.260000', '0:00:25.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:14.740000', '0:00:20.740000')]</t>
+          <t>('0:00:46.932280', '0:01:02.118130')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:56.943000', '0:01:03.992000')]</t>
+          <t>('0:04:21.828000', '0:04:41.315000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=14.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:01:09.517005')]</t>
+          <t>('0:02:29', '0:03:02.720000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:01.920000', '0:00:46.120000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=149.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:47.340000', '0:00:50.710000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:00:33.340317', '0:00:56.455803')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
